--- a/React高级教程之高阶组件-实战课程大纲.xlsx
+++ b/React高级教程之高阶组件-实战课程大纲.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weshare/Desktop/慕课网/课程资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\慕课网\imooc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{69922AD4-9FFD-3845-9B2E-17FF4380620E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CED9569-A571-4BAD-94A1-66C6FA88AD9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="25600" yWindow="-180" windowWidth="25600" windowHeight="13060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="-180" windowWidth="25600" windowHeight="13060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="教学大纲模版" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>项目\专题\理论+项目\基础</t>
   </si>
   <si>
-    <t>课程介绍</t>
-  </si>
-  <si>
     <t>1.1为什么要开设本课程</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
   </si>
   <si>
     <t>高阶组件介绍</t>
-  </si>
-  <si>
-    <t>2.1高阶函数的基本概念</t>
   </si>
   <si>
     <t>2.2高阶组件的基本概念</t>
@@ -249,6 +243,14 @@
   </si>
   <si>
     <t>每个高阶组件都会产生一个新的组件，使用这个新组件就会丢失参数组件的显示名，为了方便开发话维护，往往需要给高阶组件重新定义一个显示名</t>
+  </si>
+  <si>
+    <t>课程介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1高阶函数的基本概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -633,7 +635,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -942,10 +944,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" style="1" customWidth="1"/>
@@ -1078,294 +1080,294 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="32">
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="29">
       <c r="A11" s="25">
         <v>1</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="6">
         <v>5</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="64">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="58">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="6">
         <v>5</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="14.5">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="6">
         <v>5</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="14.5">
       <c r="A14" s="25">
         <v>2</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="6">
         <v>5</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="14.5">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="6">
         <v>5</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="14.5">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="6">
         <v>5</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="29">
       <c r="A17" s="25">
         <v>3</v>
       </c>
       <c r="B17" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="6">
         <v>5</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.5">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="6">
         <v>5</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.5">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="6">
         <v>5</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="64">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="58">
       <c r="A20" s="25">
         <v>4</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="6">
         <v>15</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="43.5">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="6">
         <v>15</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" ht="65" customHeight="1">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="11">
         <v>5</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="48">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="43.5">
       <c r="A23" s="25">
         <v>5</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="6">
         <v>5</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.5">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="6">
         <v>5</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.5">
       <c r="A25" s="16">
         <v>6</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="6">
         <v>5</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.5">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="10">
         <v>5</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="32">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="29">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="10">
         <v>5</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.5">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="10">
         <v>10</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="14.5">
       <c r="A29" s="9">
         <v>7</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="6">
@@ -1388,7 +1390,7 @@
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
       <c r="A31" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1517,7 +1519,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/React高级教程之高阶组件-实战课程大纲.xlsx
+++ b/React高级教程之高阶组件-实战课程大纲.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\慕课网\imooc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\慕课网\视频\终版\imooc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CED9569-A571-4BAD-94A1-66C6FA88AD9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-180" windowWidth="25600" windowHeight="13060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="-180" windowWidth="25600" windowHeight="13060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="教学大纲模版" sheetId="1" r:id="rId1"/>
@@ -131,9 +130,6 @@
   </si>
   <si>
     <t>从一个示例中详细说明高阶组件的定义和使用</t>
-  </si>
-  <si>
-    <t>高阶组件实现</t>
   </si>
   <si>
     <t>编写一个简单的但是五脏俱全的高阶组件，进一步加深对高阶组件的理解</t>
@@ -252,11 +248,15 @@
     <t>2.1高阶函数的基本概念</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>高阶组件实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -551,17 +551,78 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -571,67 +632,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,7 +662,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -940,11 +940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -962,105 +962,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="106.5" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="51" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="102" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -1069,10 +1069,10 @@
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1081,33 +1081,33 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" ht="29">
-      <c r="A11" s="25">
+      <c r="A11" s="18">
         <v>1</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="6">
         <v>5</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" ht="58">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="6">
         <v>5</v>
       </c>
@@ -1116,12 +1116,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" ht="14.5">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="6">
         <v>5</v>
       </c>
@@ -1130,16 +1130,16 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" ht="14.5">
-      <c r="A14" s="25">
+      <c r="A14" s="18">
         <v>2</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="15"/>
+      <c r="C14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="13"/>
       <c r="E14" s="6">
         <v>5</v>
       </c>
@@ -1148,12 +1148,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" ht="14.5">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="6">
         <v>5</v>
       </c>
@@ -1162,12 +1162,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" ht="14.5">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="6">
         <v>5</v>
       </c>
@@ -1176,187 +1176,187 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" ht="29">
-      <c r="A17" s="25">
+      <c r="A17" s="18">
         <v>3</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="15" t="s">
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.5">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="6">
-        <v>5</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="6">
-        <v>5</v>
-      </c>
-      <c r="F18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.5">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.5">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="6">
-        <v>5</v>
-      </c>
-      <c r="F19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="58">
+      <c r="A20" s="18">
+        <v>4</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="58">
-      <c r="A20" s="25">
-        <v>4</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="15"/>
+      <c r="C20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="13"/>
       <c r="E20" s="6">
         <v>15</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" ht="43.5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="15"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="13"/>
       <c r="E21" s="6">
         <v>15</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="65" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="11">
+        <v>5</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="43.5">
+      <c r="A23" s="18">
+        <v>5</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="65" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="11">
-        <v>5</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="43.5">
-      <c r="A23" s="25">
-        <v>5</v>
-      </c>
-      <c r="B23" s="25" t="s">
+      <c r="C23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="6">
+        <v>5</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.5">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.5">
+      <c r="A25" s="37">
+        <v>6</v>
+      </c>
+      <c r="B25" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="6">
-        <v>5</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.5">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="6">
-        <v>5</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.5">
-      <c r="A25" s="16">
-        <v>6</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="6">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.5">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="6">
-        <v>5</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="10">
+        <v>5</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="29">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="10">
+        <v>5</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.5">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="10">
-        <v>5</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="29">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="15" t="s">
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.5">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="10">
-        <v>5</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.5">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="10">
         <v>10</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" ht="14.5">
@@ -1364,24 +1364,24 @@
         <v>7</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="13"/>
       <c r="E29" s="6">
         <v>2</v>
       </c>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="6">
         <f>SUM(E11:E29)</f>
         <v>117</v>
@@ -1389,96 +1389,83 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A31" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="A31" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A31:F38"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A3:C3"/>
@@ -1495,16 +1482,29 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A31:F38"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1514,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
